--- a/data/bfs_data_lva.xlsx
+++ b/data/bfs_data_lva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\iCloudDrive\Dokumente\02_CLI\Studium\ZHAW\Masterarbeit\vocdata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1004C-5D26-4F83-BD7B-4119F6F58123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE575306-7645-4941-80DD-AC4AD95CB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="690" windowWidth="25830" windowHeight="14295" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29730" yWindow="825" windowWidth="25830" windowHeight="14295" firstSheet="35" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Lernform_Data" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="T2_Geschlecht_Dict" sheetId="9" r:id="rId4"/>
     <sheet name="T3_MIG_Status_Data" sheetId="3" r:id="rId5"/>
     <sheet name="T3_MIG_Status_Dict" sheetId="10" r:id="rId6"/>
-    <sheet name="T4_ISCED_Data" sheetId="26" r:id="rId7"/>
-    <sheet name="T4.1_ISCED_EBA_Data" sheetId="27" r:id="rId8"/>
-    <sheet name="T4.2_ISCED_EFZ3_Data" sheetId="28" r:id="rId9"/>
-    <sheet name="T4.3_ISCED_EFZ4_Data" sheetId="29" r:id="rId10"/>
+    <sheet name="T4_ISCED_x" sheetId="26" r:id="rId7"/>
+    <sheet name="T4.1_ISCED_EBA_x" sheetId="27" r:id="rId8"/>
+    <sheet name="T4.2_ISCED_EFZ3_x" sheetId="28" r:id="rId9"/>
+    <sheet name="T4.3_ISCED_EFZ4_x" sheetId="29" r:id="rId10"/>
     <sheet name="T4_ISCED_Dict" sheetId="30" r:id="rId11"/>
     <sheet name="T4.1.1_ISCED_Beruf_EBA_Data" sheetId="15" r:id="rId12"/>
     <sheet name="T4.2.1_ISCED_Beruf_EFZ3_Data" sheetId="16" r:id="rId13"/>
@@ -2041,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,20 +2174,6 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C7)</f>
-        <v>59263</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>18634</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>14885</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8C19D-D6DE-49AF-862D-F7FBE3F6017E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0D454-2983-4D8F-B920-93E647A1EEDD}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707ADE3-F16B-4140-8BDD-456D0E3DCC8D}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6311,7 +6297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D47D71-12B5-4FD8-8D94-E1597CC78FF2}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -8221,7 +8207,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8926,7 +8912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471BF68A-7944-454C-910D-593DFEFD33B8}">
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -14159,7 +14145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6660B2A-721E-4F9A-9FB1-143CFAE83AF0}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16198,7 +16184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415C5D5D-835D-479D-9ADF-51393E7FEF47}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
@@ -18895,7 +18881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E51ED-83E6-4314-844D-D1C9ACD29D12}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
@@ -25171,8 +25157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66649F-B915-408C-B50C-3CE1F2C97809}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25431,10 +25417,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25665,20 +25651,6 @@
       </c>
       <c r="E13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f t="shared" ref="C14:E14" si="0">SUM(C2:C13)</f>
-        <v>52937</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>16183</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>12874</v>
       </c>
     </row>
   </sheetData>
@@ -25813,7 +25785,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26472,7 +26444,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26897,7 +26869,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
